--- a/server/uploads/Copy of Answer keys (1).xlsx
+++ b/server/uploads/Copy of Answer keys (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Quiz\server\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5772" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="First round" sheetId="1" r:id="rId1"/>
@@ -1255,23 +1255,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,7 +1494,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -1513,18 +1513,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1557,7 +1557,7 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7">
@@ -1587,7 +1587,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="56"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="7"/>
       <c r="C4" s="13" t="s">
         <v>13</v>
@@ -1613,7 +1613,7 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="56"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="56"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>25</v>
@@ -1667,7 +1667,7 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="56"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="7"/>
       <c r="C8" s="13" t="s">
         <v>37</v>
@@ -1721,7 +1721,7 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="58" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="7">
@@ -1751,7 +1751,7 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="56"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="7"/>
       <c r="C10" s="13" t="s">
         <v>13</v>
@@ -1777,7 +1777,7 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="56"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="7">
         <v>5</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="56"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="7"/>
       <c r="C12" s="13" t="s">
         <v>25</v>
@@ -1831,7 +1831,7 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="56"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="7">
         <v>6</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="7"/>
       <c r="C14" s="13" t="s">
         <v>37</v>
@@ -1885,7 +1885,7 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="58" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="7">
@@ -1915,7 +1915,7 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="56"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="7"/>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -1941,7 +1941,7 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="7">
         <v>8</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="56"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="7"/>
       <c r="C18" s="13" t="s">
         <v>25</v>
@@ -1995,7 +1995,7 @@
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="7">
         <v>9</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="7"/>
       <c r="C20" s="13" t="s">
         <v>37</v>
@@ -2049,7 +2049,7 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="7">
@@ -2079,7 +2079,7 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="56"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="7"/>
       <c r="C22" s="13" t="s">
         <v>13</v>
@@ -2105,7 +2105,7 @@
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="56"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="7">
         <v>11</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="56"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="7"/>
       <c r="C24" s="13" t="s">
         <v>25</v>
@@ -2159,7 +2159,7 @@
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="56"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="7">
         <v>12</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="57"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="7"/>
       <c r="C26" s="13" t="s">
         <v>37</v>
@@ -2213,7 +2213,7 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="58" t="s">
         <v>122</v>
       </c>
       <c r="B27" s="7">
@@ -2243,7 +2243,7 @@
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="56"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="7"/>
       <c r="C28" s="13" t="s">
         <v>13</v>
@@ -2269,7 +2269,7 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="7">
         <v>14</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="56"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="7"/>
       <c r="C30" s="13" t="s">
         <v>25</v>
@@ -2323,7 +2323,7 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="56"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="7">
         <v>15</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="57"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="7"/>
       <c r="C32" s="13" t="s">
         <v>37</v>
@@ -2377,7 +2377,7 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="58" t="s">
         <v>141</v>
       </c>
       <c r="B33" s="7">
@@ -2407,7 +2407,7 @@
       <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A34" s="56"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13" t="s">
         <v>13</v>
@@ -2433,7 +2433,7 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="56"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="7">
         <v>17</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="56"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13" t="s">
         <v>25</v>
@@ -2487,7 +2487,7 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="56"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="7">
         <v>18</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="57"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="7"/>
       <c r="C38" s="13" t="s">
         <v>37</v>
@@ -5147,10 +5147,10 @@
       <c r="A1" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
@@ -5210,7 +5210,7 @@
       <c r="Y2" s="37"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="30">
@@ -5247,7 +5247,7 @@
       <c r="Y3" s="37"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A4" s="56"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="30"/>
       <c r="C4" s="28" t="s">
         <v>178</v>
@@ -5280,7 +5280,7 @@
       <c r="Y4" s="37"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="56"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="30">
         <v>2</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A6" s="56"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="30"/>
       <c r="C6" s="28" t="s">
         <v>182</v>
@@ -5348,7 +5348,7 @@
       <c r="Y6" s="37"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="56"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="30">
         <v>3</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="Y7" s="37"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="30"/>
       <c r="C8" s="28" t="s">
         <v>185</v>
@@ -5416,7 +5416,7 @@
       <c r="Y8" s="37"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="58" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="30">
@@ -5453,7 +5453,7 @@
       <c r="Y9" s="37"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A10" s="56"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="30"/>
       <c r="C10" s="28" t="s">
         <v>189</v>
@@ -5486,7 +5486,7 @@
       <c r="Y10" s="37"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A11" s="56"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="30">
         <v>5</v>
       </c>
@@ -5521,7 +5521,7 @@
       <c r="Y11" s="37"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A12" s="56"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="30"/>
       <c r="C12" s="28" t="s">
         <v>193</v>
@@ -5554,7 +5554,7 @@
       <c r="Y12" s="37"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A13" s="56"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="30">
         <v>6</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="Y13" s="37"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="30"/>
       <c r="C14" s="28" t="s">
         <v>196</v>
@@ -5618,7 +5618,7 @@
       <c r="Y14" s="37"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="58" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="30">
@@ -5653,7 +5653,7 @@
       <c r="Y15" s="37"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A16" s="56"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="30"/>
       <c r="C16" s="28" t="s">
         <v>199</v>
@@ -5684,7 +5684,7 @@
       <c r="Y16" s="37"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="30">
         <v>8</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="Y17" s="37"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A18" s="56"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="30"/>
       <c r="C18" s="28" t="s">
         <v>202</v>
@@ -5752,7 +5752,7 @@
       <c r="Y18" s="37"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="30">
         <v>9</v>
       </c>
@@ -5785,7 +5785,7 @@
       <c r="Y19" s="37"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="30"/>
       <c r="C20" s="28" t="s">
         <v>205</v>
@@ -5816,7 +5816,7 @@
       <c r="Y20" s="37"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="30">
@@ -5853,7 +5853,7 @@
       <c r="Y21" s="37"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A22" s="56"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="30"/>
       <c r="C22" s="28" t="s">
         <v>208</v>
@@ -5886,7 +5886,7 @@
       <c r="Y22" s="37"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A23" s="56"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="30">
         <v>11</v>
       </c>
@@ -5921,7 +5921,7 @@
       <c r="Y23" s="37"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A24" s="56"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="30"/>
       <c r="C24" s="28" t="s">
         <v>212</v>
@@ -5954,7 +5954,7 @@
       <c r="Y24" s="37"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="56"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="30">
         <v>12</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="Y25" s="37"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A26" s="57"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="30"/>
       <c r="C26" s="28" t="s">
         <v>216</v>
@@ -6022,7 +6022,7 @@
       <c r="Y26" s="37"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="58" t="s">
         <v>122</v>
       </c>
       <c r="B27" s="30">
@@ -6059,7 +6059,7 @@
       <c r="Y27" s="37"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="56"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="30"/>
       <c r="C28" s="28" t="s">
         <v>220</v>
@@ -6092,7 +6092,7 @@
       <c r="Y28" s="37"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="30">
         <v>14</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="Y29" s="37"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="56"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="30"/>
       <c r="C30" s="28" t="s">
         <v>224</v>
@@ -6160,7 +6160,7 @@
       <c r="Y30" s="37"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="56"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="30">
         <v>15</v>
       </c>
@@ -6195,7 +6195,7 @@
       <c r="Y31" s="37"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="57"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="30"/>
       <c r="C32" s="28" t="s">
         <v>228</v>
@@ -6228,7 +6228,7 @@
       <c r="Y32" s="37"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="58" t="s">
         <v>141</v>
       </c>
       <c r="B33" s="30">
@@ -6265,7 +6265,7 @@
       <c r="Y33" s="37"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="56"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="30"/>
       <c r="C34" s="28" t="s">
         <v>232</v>
@@ -6298,7 +6298,7 @@
       <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="56"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="30">
         <v>17</v>
       </c>
@@ -6333,7 +6333,7 @@
       <c r="Y35" s="37"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="56"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="30"/>
       <c r="C36" s="28" t="s">
         <v>236</v>
@@ -6366,7 +6366,7 @@
       <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A37" s="56"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="30">
         <v>18</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="Y37" s="37"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="57"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30" t="s">
         <v>239</v>
@@ -12612,9 +12612,7 @@
   </sheetPr>
   <dimension ref="C1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12629,11 +12627,11 @@
       <c r="C1" s="54"/>
     </row>
     <row r="2" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="3:5" ht="15.75" customHeight="1">
       <c r="C3" s="40" t="s">
@@ -12645,7 +12643,7 @@
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>243</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -12656,7 +12654,7 @@
       </c>
     </row>
     <row r="5" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C5" s="56"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="7" t="s">
         <v>246</v>
       </c>
@@ -12665,7 +12663,7 @@
       </c>
     </row>
     <row r="6" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C6" s="57"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="7" t="s">
         <v>248</v>
       </c>
@@ -12674,7 +12672,7 @@
       </c>
     </row>
     <row r="7" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="63" t="s">
         <v>250</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -12685,7 +12683,7 @@
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C8" s="56"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="7" t="s">
         <v>253</v>
       </c>
@@ -12694,7 +12692,7 @@
       </c>
     </row>
     <row r="9" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C9" s="57"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="7" t="s">
         <v>255</v>
       </c>
@@ -12703,7 +12701,7 @@
       </c>
     </row>
     <row r="10" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="63" t="s">
         <v>257</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -12714,7 +12712,7 @@
       </c>
     </row>
     <row r="11" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C11" s="56"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="7" t="s">
         <v>260</v>
       </c>
@@ -12723,7 +12721,7 @@
       </c>
     </row>
     <row r="12" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C12" s="57"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="7" t="s">
         <v>262</v>
       </c>
@@ -12732,7 +12730,7 @@
       </c>
     </row>
     <row r="13" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="63" t="s">
         <v>264</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -12743,7 +12741,7 @@
       </c>
     </row>
     <row r="14" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C14" s="56"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="7" t="s">
         <v>267</v>
       </c>
@@ -12752,7 +12750,7 @@
       </c>
     </row>
     <row r="15" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C15" s="57"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="7" t="s">
         <v>269</v>
       </c>
@@ -12761,7 +12759,7 @@
       </c>
     </row>
     <row r="16" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="63" t="s">
         <v>271</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -12772,7 +12770,7 @@
       </c>
     </row>
     <row r="17" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C17" s="56"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="7" t="s">
         <v>274</v>
       </c>
@@ -12781,7 +12779,7 @@
       </c>
     </row>
     <row r="18" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C18" s="57"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="7" t="s">
         <v>276</v>
       </c>
@@ -12790,7 +12788,7 @@
       </c>
     </row>
     <row r="19" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="63" t="s">
         <v>141</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -12801,7 +12799,7 @@
       </c>
     </row>
     <row r="20" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C20" s="56"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="7" t="s">
         <v>280</v>
       </c>
@@ -12810,7 +12808,7 @@
       </c>
     </row>
     <row r="21" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C21" s="57"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="7" t="s">
         <v>282</v>
       </c>

--- a/server/uploads/Copy of Answer keys (1).xlsx
+++ b/server/uploads/Copy of Answer keys (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="5772" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="First round" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="290">
   <si>
     <t>First round</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t xml:space="preserve">Question </t>
-  </si>
-  <si>
     <t>Answer</t>
   </si>
   <si>
@@ -550,9 +547,6 @@
     <t>Second round - True are false/ ಸರಿ /ತಪ್ಪು</t>
   </si>
   <si>
-    <t>True / False</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -754,9 +748,6 @@
     <t>School</t>
   </si>
   <si>
-    <t>Images quiz Answer</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -893,13 +884,25 @@
   </si>
   <si>
     <t>Option4</t>
+  </si>
+  <si>
+    <t>TrueorFalse</t>
+  </si>
+  <si>
+    <t>KanAnswer</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fupload.wikimedia.org%2Fwikipedia%2Fcommons%2Fthumb%2Fe%2Fe7%2FPenrose-triangle-4color-rotation.gif%2F220px-Penrose-triangle-4color-rotation.gif&amp;imgrefurl=https%3A%2F%2Fen.wikipedia.org%2Fwiki%2FPenrose_triangle&amp;tbnid=6M3Za85LtHdKmM&amp;vet=12ahUKEwi-rOrw4Y_wAhV6GbcAHfxGDZwQMygDegUIARDHAQ..i&amp;docid=ymJ7G7GB8KfxXM&amp;w=220&amp;h=151&amp;q=infinity%20square&amp;hl=en&amp;ved=2ahUKEwi-rOrw4Y_wAhV6GbcAHfxGDZwQMygDegUIARDHAQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -977,6 +980,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1110,10 +1119,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1219,9 +1229,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,27 +1262,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1494,9 +1513,9 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1513,18 +1532,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1537,1006 +1556,1006 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="57" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="7"/>
       <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="59"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="7"/>
       <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="I7" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="60"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="7"/>
       <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="57" t="s">
         <v>42</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="58" t="s">
-        <v>43</v>
       </c>
       <c r="B9" s="7">
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="7"/>
       <c r="C10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="I10" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="7">
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="I11" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="59"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="7"/>
       <c r="C12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="I12" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="59"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="7">
         <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="I13" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="60"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="7"/>
       <c r="C14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="I14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="57" t="s">
         <v>73</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="58" t="s">
-        <v>74</v>
       </c>
       <c r="B15" s="7">
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="I15" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="7"/>
       <c r="C16" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="I16" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="7">
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="I17" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="7"/>
       <c r="C18" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="I18" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="7">
         <v>9</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="I19" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="60"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="7"/>
       <c r="C20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="I20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="57" t="s">
         <v>94</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>95</v>
       </c>
       <c r="B21" s="7">
         <v>10</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="I21" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="59"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="7"/>
       <c r="C22" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="I22" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="59"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="7">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="I23" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="59"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="7"/>
       <c r="C24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="I24" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="59"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="7">
         <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="I25" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="60"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="7"/>
       <c r="C26" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="57" t="s">
         <v>121</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="58" t="s">
-        <v>122</v>
       </c>
       <c r="B27" s="7">
         <v>13</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="G27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="I27" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="59"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="7"/>
       <c r="C28" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="G28" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="59"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="7">
         <v>14</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="I29" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="59"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="7"/>
       <c r="C30" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="I30" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="59"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="7">
         <v>15</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="G31" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="60"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="7"/>
       <c r="C32" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="57" t="s">
         <v>140</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="58" t="s">
-        <v>141</v>
       </c>
       <c r="B33" s="7">
         <v>16</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="F33" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="G33" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="H33" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="I33" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="24" t="s">
-        <v>147</v>
-      </c>
       <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A34" s="59"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="7"/>
       <c r="C34" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="I34" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="59"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="7">
         <v>17</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="F35" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="G35" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="H35" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H35" s="18" t="s">
-        <v>157</v>
-      </c>
       <c r="I35" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="59"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="7"/>
       <c r="C36" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="F36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="I36" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="59"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="7">
         <v>18</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="F37" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="G37" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="I37" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="60"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="7"/>
       <c r="C38" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="I38" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J38" s="7"/>
     </row>
@@ -5128,9 +5147,9 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5144,13 +5163,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
+      <c r="A1" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
@@ -5179,14 +5198,14 @@
       <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>175</v>
+      <c r="C2" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>173</v>
       </c>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
@@ -5210,20 +5229,20 @@
       <c r="Y2" s="37"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>6</v>
+      <c r="A3" s="57" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="30">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="43" t="b">
+      <c r="C3" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="42" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -5247,16 +5266,16 @@
       <c r="Y3" s="37"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="30"/>
       <c r="C4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>178</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>180</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -5280,18 +5299,18 @@
       <c r="Y4" s="37"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="43" t="b">
+      <c r="C5" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="42" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
@@ -5315,16 +5334,16 @@
       <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A6" s="59"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="30"/>
       <c r="C6" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>126</v>
+        <v>177</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -5348,18 +5367,18 @@
       <c r="Y6" s="37"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="30">
         <v>3</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="43" t="b">
+      <c r="C7" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="42" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -5383,16 +5402,16 @@
       <c r="Y7" s="37"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A8" s="60"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="30"/>
       <c r="C8" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -5416,20 +5435,20 @@
       <c r="Y8" s="37"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="58" t="s">
-        <v>43</v>
+      <c r="A9" s="57" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="30">
         <v>4</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="43" t="b">
+      <c r="C9" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="42" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -5453,16 +5472,16 @@
       <c r="Y9" s="37"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="30"/>
       <c r="C10" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -5486,18 +5505,18 @@
       <c r="Y10" s="37"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="30">
         <v>5</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="43" t="b">
+      <c r="C11" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="42" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -5521,16 +5540,16 @@
       <c r="Y11" s="37"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A12" s="59"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="30"/>
       <c r="C12" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -5554,14 +5573,14 @@
       <c r="Y12" s="37"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A13" s="59"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="30">
         <v>6</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="43" t="b">
+      <c r="C13" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="42" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="30"/>
@@ -5587,13 +5606,13 @@
       <c r="Y13" s="37"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A14" s="60"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="30"/>
       <c r="C14" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="37"/>
@@ -5618,19 +5637,19 @@
       <c r="Y14" s="37"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A15" s="58" t="s">
-        <v>74</v>
+      <c r="A15" s="57" t="s">
+        <v>73</v>
       </c>
       <c r="B15" s="30">
         <v>7</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>198</v>
+      <c r="C15" s="41" t="s">
+        <v>196</v>
       </c>
       <c r="D15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -5653,13 +5672,13 @@
       <c r="Y15" s="37"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="30"/>
       <c r="C16" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="37"/>
@@ -5684,22 +5703,22 @@
       <c r="Y16" s="37"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="30">
         <v>8</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="46" t="b">
+      <c r="C17" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="45" t="b">
         <v>0</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="47"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
@@ -5719,16 +5738,16 @@
       <c r="Y17" s="37"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="30"/>
       <c r="C18" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>201</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -5752,14 +5771,14 @@
       <c r="Y18" s="37"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="30">
         <v>9</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="50" t="b">
+        <v>202</v>
+      </c>
+      <c r="D19" s="49" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="30"/>
@@ -5785,13 +5804,13 @@
       <c r="Y19" s="37"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A20" s="60"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="30"/>
       <c r="C20" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="37"/>
@@ -5816,20 +5835,20 @@
       <c r="Y20" s="37"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A21" s="58" t="s">
-        <v>95</v>
+      <c r="A21" s="57" t="s">
+        <v>94</v>
       </c>
       <c r="B21" s="30">
         <v>10</v>
       </c>
-      <c r="C21" s="51" t="s">
-        <v>206</v>
+      <c r="C21" s="50" t="s">
+        <v>204</v>
       </c>
       <c r="D21" s="18" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -5853,16 +5872,16 @@
       <c r="Y21" s="37"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A22" s="59"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="30"/>
       <c r="C22" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -5886,18 +5905,18 @@
       <c r="Y22" s="37"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A23" s="59"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="30">
         <v>11</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="43" t="b">
+      <c r="C23" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="42" t="b">
         <v>0</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -5921,16 +5940,16 @@
       <c r="Y23" s="37"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A24" s="59"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="30"/>
       <c r="C24" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -5954,18 +5973,18 @@
       <c r="Y24" s="37"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="59"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="30">
         <v>12</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="43" t="b">
+        <v>212</v>
+      </c>
+      <c r="D25" s="42" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -5989,16 +6008,16 @@
       <c r="Y25" s="37"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A26" s="60"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="30"/>
       <c r="C26" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -6022,20 +6041,20 @@
       <c r="Y26" s="37"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="58" t="s">
-        <v>122</v>
+      <c r="A27" s="57" t="s">
+        <v>121</v>
       </c>
       <c r="B27" s="30">
         <v>13</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="46" t="b">
+        <v>216</v>
+      </c>
+      <c r="D27" s="45" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -6059,16 +6078,16 @@
       <c r="Y27" s="37"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="59"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="30"/>
       <c r="C28" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>179</v>
+        <v>218</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>177</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -6092,18 +6111,18 @@
       <c r="Y28" s="37"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="59"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="30">
         <v>14</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="43" t="b">
+        <v>220</v>
+      </c>
+      <c r="D29" s="42" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -6127,16 +6146,16 @@
       <c r="Y29" s="37"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="59"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="30"/>
       <c r="C30" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -6160,18 +6179,18 @@
       <c r="Y30" s="37"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="59"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="30">
         <v>15</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="43" t="b">
+        <v>224</v>
+      </c>
+      <c r="D31" s="42" t="b">
         <v>0</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -6195,16 +6214,16 @@
       <c r="Y31" s="37"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="60"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="30"/>
       <c r="C32" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -6228,20 +6247,20 @@
       <c r="Y32" s="37"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="58" t="s">
-        <v>141</v>
+      <c r="A33" s="57" t="s">
+        <v>140</v>
       </c>
       <c r="B33" s="30">
         <v>16</v>
       </c>
-      <c r="C33" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="43" t="b">
+      <c r="C33" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="42" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -6265,16 +6284,16 @@
       <c r="Y33" s="37"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="59"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="30"/>
       <c r="C34" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -6298,18 +6317,18 @@
       <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="59"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="30">
         <v>17</v>
       </c>
-      <c r="C35" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" s="43" t="b">
+      <c r="C35" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="42" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -6333,16 +6352,16 @@
       <c r="Y35" s="37"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="59"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="30"/>
       <c r="C36" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -6366,14 +6385,14 @@
       <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A37" s="59"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="30">
         <v>18</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="43" t="b">
+        <v>236</v>
+      </c>
+      <c r="D37" s="42" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="30"/>
@@ -6399,13 +6418,13 @@
       <c r="Y37" s="37"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="60"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="37"/>
@@ -6430,10 +6449,10 @@
       <c r="Y38" s="37"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A39" s="52"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="53"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -6457,10 +6476,10 @@
       <c r="Y39" s="37"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A40" s="52"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="53"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -6484,10 +6503,10 @@
       <c r="Y40" s="37"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A41" s="52"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
-      <c r="D41" s="53"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -6511,10 +6530,10 @@
       <c r="Y41" s="37"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A42" s="52"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
-      <c r="D42" s="53"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -6538,10 +6557,10 @@
       <c r="Y42" s="37"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A43" s="52"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="53"/>
+      <c r="D43" s="52"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -6565,10 +6584,10 @@
       <c r="Y43" s="37"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A44" s="52"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="53"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -6592,10 +6611,10 @@
       <c r="Y44" s="37"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="52"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="53"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -6619,10 +6638,10 @@
       <c r="Y45" s="37"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A46" s="52"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
-      <c r="D46" s="53"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -6646,10 +6665,10 @@
       <c r="Y46" s="37"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A47" s="52"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
-      <c r="D47" s="53"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -6673,10 +6692,10 @@
       <c r="Y47" s="37"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="52"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
-      <c r="D48" s="53"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -6700,10 +6719,10 @@
       <c r="Y48" s="37"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A49" s="52"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
-      <c r="D49" s="53"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -6727,10 +6746,10 @@
       <c r="Y49" s="37"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A50" s="52"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
-      <c r="D50" s="53"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -6754,10 +6773,10 @@
       <c r="Y50" s="37"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A51" s="52"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
-      <c r="D51" s="53"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -6781,10 +6800,10 @@
       <c r="Y51" s="37"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A52" s="52"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="53"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -6808,10 +6827,10 @@
       <c r="Y52" s="37"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A53" s="52"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
-      <c r="D53" s="53"/>
+      <c r="D53" s="52"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -6835,10 +6854,10 @@
       <c r="Y53" s="37"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A54" s="52"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
-      <c r="D54" s="53"/>
+      <c r="D54" s="52"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -6862,10 +6881,10 @@
       <c r="Y54" s="37"/>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A55" s="52"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
-      <c r="D55" s="53"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -6889,10 +6908,10 @@
       <c r="Y55" s="37"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A56" s="52"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
-      <c r="D56" s="53"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -6916,10 +6935,10 @@
       <c r="Y56" s="37"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A57" s="52"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
-      <c r="D57" s="53"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -6943,10 +6962,10 @@
       <c r="Y57" s="37"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A58" s="52"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
-      <c r="D58" s="53"/>
+      <c r="D58" s="52"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -6970,10 +6989,10 @@
       <c r="Y58" s="37"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A59" s="52"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
-      <c r="D59" s="53"/>
+      <c r="D59" s="52"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -6997,10 +7016,10 @@
       <c r="Y59" s="37"/>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A60" s="52"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
-      <c r="D60" s="53"/>
+      <c r="D60" s="52"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -7024,10 +7043,10 @@
       <c r="Y60" s="37"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A61" s="52"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
-      <c r="D61" s="53"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -7051,10 +7070,10 @@
       <c r="Y61" s="37"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A62" s="52"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
-      <c r="D62" s="53"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -7078,10 +7097,10 @@
       <c r="Y62" s="37"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A63" s="52"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
-      <c r="D63" s="53"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="37"/>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -7105,10 +7124,10 @@
       <c r="Y63" s="37"/>
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A64" s="52"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
-      <c r="D64" s="53"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -7132,10 +7151,10 @@
       <c r="Y64" s="37"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A65" s="52"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
-      <c r="D65" s="53"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
@@ -7159,10 +7178,10 @@
       <c r="Y65" s="37"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A66" s="52"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
-      <c r="D66" s="53"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -7186,10 +7205,10 @@
       <c r="Y66" s="37"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A67" s="52"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
-      <c r="D67" s="53"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -7213,10 +7232,10 @@
       <c r="Y67" s="37"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A68" s="52"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
-      <c r="D68" s="53"/>
+      <c r="D68" s="52"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -7240,10 +7259,10 @@
       <c r="Y68" s="37"/>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A69" s="52"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
-      <c r="D69" s="53"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="37"/>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -7267,10 +7286,10 @@
       <c r="Y69" s="37"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A70" s="52"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
-      <c r="D70" s="53"/>
+      <c r="D70" s="52"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -7294,10 +7313,10 @@
       <c r="Y70" s="37"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A71" s="52"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
-      <c r="D71" s="53"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -7321,10 +7340,10 @@
       <c r="Y71" s="37"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A72" s="52"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
-      <c r="D72" s="53"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -7348,10 +7367,10 @@
       <c r="Y72" s="37"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A73" s="52"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
-      <c r="D73" s="53"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -7375,10 +7394,10 @@
       <c r="Y73" s="37"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A74" s="52"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
-      <c r="D74" s="53"/>
+      <c r="D74" s="52"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -7402,10 +7421,10 @@
       <c r="Y74" s="37"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A75" s="52"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
-      <c r="D75" s="53"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -7429,10 +7448,10 @@
       <c r="Y75" s="37"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A76" s="52"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
-      <c r="D76" s="53"/>
+      <c r="D76" s="52"/>
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -7456,10 +7475,10 @@
       <c r="Y76" s="37"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A77" s="52"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
-      <c r="D77" s="53"/>
+      <c r="D77" s="52"/>
       <c r="E77" s="37"/>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -7483,10 +7502,10 @@
       <c r="Y77" s="37"/>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A78" s="52"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
-      <c r="D78" s="53"/>
+      <c r="D78" s="52"/>
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -7510,10 +7529,10 @@
       <c r="Y78" s="37"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A79" s="52"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
-      <c r="D79" s="53"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="37"/>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -7537,10 +7556,10 @@
       <c r="Y79" s="37"/>
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A80" s="52"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
-      <c r="D80" s="53"/>
+      <c r="D80" s="52"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -7564,10 +7583,10 @@
       <c r="Y80" s="37"/>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A81" s="52"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
-      <c r="D81" s="53"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -7591,10 +7610,10 @@
       <c r="Y81" s="37"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A82" s="52"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
-      <c r="D82" s="53"/>
+      <c r="D82" s="52"/>
       <c r="E82" s="37"/>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -7618,10 +7637,10 @@
       <c r="Y82" s="37"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A83" s="52"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
-      <c r="D83" s="53"/>
+      <c r="D83" s="52"/>
       <c r="E83" s="37"/>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -7645,10 +7664,10 @@
       <c r="Y83" s="37"/>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A84" s="52"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
-      <c r="D84" s="53"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -7672,10 +7691,10 @@
       <c r="Y84" s="37"/>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A85" s="52"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="37"/>
       <c r="C85" s="37"/>
-      <c r="D85" s="53"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -7699,10 +7718,10 @@
       <c r="Y85" s="37"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A86" s="52"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
-      <c r="D86" s="53"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -7726,10 +7745,10 @@
       <c r="Y86" s="37"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A87" s="52"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="37"/>
       <c r="C87" s="37"/>
-      <c r="D87" s="53"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="37"/>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -7753,10 +7772,10 @@
       <c r="Y87" s="37"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A88" s="52"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="37"/>
       <c r="C88" s="37"/>
-      <c r="D88" s="53"/>
+      <c r="D88" s="52"/>
       <c r="E88" s="37"/>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -7780,10 +7799,10 @@
       <c r="Y88" s="37"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A89" s="52"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
-      <c r="D89" s="53"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="37"/>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -7807,10 +7826,10 @@
       <c r="Y89" s="37"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A90" s="52"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="37"/>
       <c r="C90" s="37"/>
-      <c r="D90" s="53"/>
+      <c r="D90" s="52"/>
       <c r="E90" s="37"/>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -7834,10 +7853,10 @@
       <c r="Y90" s="37"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A91" s="52"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
-      <c r="D91" s="53"/>
+      <c r="D91" s="52"/>
       <c r="E91" s="37"/>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -7861,10 +7880,10 @@
       <c r="Y91" s="37"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A92" s="52"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
-      <c r="D92" s="53"/>
+      <c r="D92" s="52"/>
       <c r="E92" s="37"/>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -7888,10 +7907,10 @@
       <c r="Y92" s="37"/>
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A93" s="52"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
-      <c r="D93" s="53"/>
+      <c r="D93" s="52"/>
       <c r="E93" s="37"/>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -7915,10 +7934,10 @@
       <c r="Y93" s="37"/>
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A94" s="52"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="37"/>
       <c r="C94" s="37"/>
-      <c r="D94" s="53"/>
+      <c r="D94" s="52"/>
       <c r="E94" s="37"/>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -7942,10 +7961,10 @@
       <c r="Y94" s="37"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A95" s="52"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
-      <c r="D95" s="53"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7969,10 +7988,10 @@
       <c r="Y95" s="37"/>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A96" s="52"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
-      <c r="D96" s="53"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="37"/>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -7996,10 +8015,10 @@
       <c r="Y96" s="37"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A97" s="52"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
-      <c r="D97" s="53"/>
+      <c r="D97" s="52"/>
       <c r="E97" s="37"/>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -8023,10 +8042,10 @@
       <c r="Y97" s="37"/>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A98" s="52"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
-      <c r="D98" s="53"/>
+      <c r="D98" s="52"/>
       <c r="E98" s="37"/>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -8050,10 +8069,10 @@
       <c r="Y98" s="37"/>
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A99" s="52"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="37"/>
       <c r="C99" s="37"/>
-      <c r="D99" s="53"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="37"/>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -8077,10 +8096,10 @@
       <c r="Y99" s="37"/>
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A100" s="52"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
-      <c r="D100" s="53"/>
+      <c r="D100" s="52"/>
       <c r="E100" s="37"/>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -8104,10 +8123,10 @@
       <c r="Y100" s="37"/>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A101" s="52"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
-      <c r="D101" s="53"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="37"/>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -8131,10 +8150,10 @@
       <c r="Y101" s="37"/>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A102" s="52"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="37"/>
       <c r="C102" s="37"/>
-      <c r="D102" s="53"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="37"/>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -8158,10 +8177,10 @@
       <c r="Y102" s="37"/>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A103" s="52"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
-      <c r="D103" s="53"/>
+      <c r="D103" s="52"/>
       <c r="E103" s="37"/>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -8185,10 +8204,10 @@
       <c r="Y103" s="37"/>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A104" s="52"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
-      <c r="D104" s="53"/>
+      <c r="D104" s="52"/>
       <c r="E104" s="37"/>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -8212,10 +8231,10 @@
       <c r="Y104" s="37"/>
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A105" s="52"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
-      <c r="D105" s="53"/>
+      <c r="D105" s="52"/>
       <c r="E105" s="37"/>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -8239,10 +8258,10 @@
       <c r="Y105" s="37"/>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A106" s="52"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="37"/>
       <c r="C106" s="37"/>
-      <c r="D106" s="53"/>
+      <c r="D106" s="52"/>
       <c r="E106" s="37"/>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -8266,10 +8285,10 @@
       <c r="Y106" s="37"/>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A107" s="52"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
-      <c r="D107" s="53"/>
+      <c r="D107" s="52"/>
       <c r="E107" s="37"/>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -8293,10 +8312,10 @@
       <c r="Y107" s="37"/>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A108" s="52"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
-      <c r="D108" s="53"/>
+      <c r="D108" s="52"/>
       <c r="E108" s="37"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -8320,10 +8339,10 @@
       <c r="Y108" s="37"/>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A109" s="52"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
-      <c r="D109" s="53"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="37"/>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -8347,10 +8366,10 @@
       <c r="Y109" s="37"/>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A110" s="52"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
-      <c r="D110" s="53"/>
+      <c r="D110" s="52"/>
       <c r="E110" s="37"/>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -8374,10 +8393,10 @@
       <c r="Y110" s="37"/>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A111" s="52"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
-      <c r="D111" s="53"/>
+      <c r="D111" s="52"/>
       <c r="E111" s="37"/>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -8401,10 +8420,10 @@
       <c r="Y111" s="37"/>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A112" s="52"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
-      <c r="D112" s="53"/>
+      <c r="D112" s="52"/>
       <c r="E112" s="37"/>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -8428,10 +8447,10 @@
       <c r="Y112" s="37"/>
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A113" s="52"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
-      <c r="D113" s="53"/>
+      <c r="D113" s="52"/>
       <c r="E113" s="37"/>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -8455,10 +8474,10 @@
       <c r="Y113" s="37"/>
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A114" s="52"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
-      <c r="D114" s="53"/>
+      <c r="D114" s="52"/>
       <c r="E114" s="37"/>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -8482,10 +8501,10 @@
       <c r="Y114" s="37"/>
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A115" s="52"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
-      <c r="D115" s="53"/>
+      <c r="D115" s="52"/>
       <c r="E115" s="37"/>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -8509,10 +8528,10 @@
       <c r="Y115" s="37"/>
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A116" s="52"/>
+      <c r="A116" s="51"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
-      <c r="D116" s="53"/>
+      <c r="D116" s="52"/>
       <c r="E116" s="37"/>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -8536,10 +8555,10 @@
       <c r="Y116" s="37"/>
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A117" s="52"/>
+      <c r="A117" s="51"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
-      <c r="D117" s="53"/>
+      <c r="D117" s="52"/>
       <c r="E117" s="37"/>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -8563,10 +8582,10 @@
       <c r="Y117" s="37"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A118" s="52"/>
+      <c r="A118" s="51"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
-      <c r="D118" s="53"/>
+      <c r="D118" s="52"/>
       <c r="E118" s="37"/>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -8590,10 +8609,10 @@
       <c r="Y118" s="37"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A119" s="52"/>
+      <c r="A119" s="51"/>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
-      <c r="D119" s="53"/>
+      <c r="D119" s="52"/>
       <c r="E119" s="37"/>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -8617,10 +8636,10 @@
       <c r="Y119" s="37"/>
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A120" s="52"/>
+      <c r="A120" s="51"/>
       <c r="B120" s="37"/>
       <c r="C120" s="37"/>
-      <c r="D120" s="53"/>
+      <c r="D120" s="52"/>
       <c r="E120" s="37"/>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -8644,10 +8663,10 @@
       <c r="Y120" s="37"/>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A121" s="52"/>
+      <c r="A121" s="51"/>
       <c r="B121" s="37"/>
       <c r="C121" s="37"/>
-      <c r="D121" s="53"/>
+      <c r="D121" s="52"/>
       <c r="E121" s="37"/>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -8671,10 +8690,10 @@
       <c r="Y121" s="37"/>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A122" s="52"/>
+      <c r="A122" s="51"/>
       <c r="B122" s="37"/>
       <c r="C122" s="37"/>
-      <c r="D122" s="53"/>
+      <c r="D122" s="52"/>
       <c r="E122" s="37"/>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -8698,10 +8717,10 @@
       <c r="Y122" s="37"/>
     </row>
     <row r="123" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A123" s="52"/>
+      <c r="A123" s="51"/>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
-      <c r="D123" s="53"/>
+      <c r="D123" s="52"/>
       <c r="E123" s="37"/>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -8725,10 +8744,10 @@
       <c r="Y123" s="37"/>
     </row>
     <row r="124" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A124" s="52"/>
+      <c r="A124" s="51"/>
       <c r="B124" s="37"/>
       <c r="C124" s="37"/>
-      <c r="D124" s="53"/>
+      <c r="D124" s="52"/>
       <c r="E124" s="37"/>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -8752,10 +8771,10 @@
       <c r="Y124" s="37"/>
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A125" s="52"/>
+      <c r="A125" s="51"/>
       <c r="B125" s="37"/>
       <c r="C125" s="37"/>
-      <c r="D125" s="53"/>
+      <c r="D125" s="52"/>
       <c r="E125" s="37"/>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -8779,10 +8798,10 @@
       <c r="Y125" s="37"/>
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A126" s="52"/>
+      <c r="A126" s="51"/>
       <c r="B126" s="37"/>
       <c r="C126" s="37"/>
-      <c r="D126" s="53"/>
+      <c r="D126" s="52"/>
       <c r="E126" s="37"/>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -8806,10 +8825,10 @@
       <c r="Y126" s="37"/>
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A127" s="52"/>
+      <c r="A127" s="51"/>
       <c r="B127" s="37"/>
       <c r="C127" s="37"/>
-      <c r="D127" s="53"/>
+      <c r="D127" s="52"/>
       <c r="E127" s="37"/>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -8833,10 +8852,10 @@
       <c r="Y127" s="37"/>
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A128" s="52"/>
+      <c r="A128" s="51"/>
       <c r="B128" s="37"/>
       <c r="C128" s="37"/>
-      <c r="D128" s="53"/>
+      <c r="D128" s="52"/>
       <c r="E128" s="37"/>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
@@ -8860,10 +8879,10 @@
       <c r="Y128" s="37"/>
     </row>
     <row r="129" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A129" s="52"/>
+      <c r="A129" s="51"/>
       <c r="B129" s="37"/>
       <c r="C129" s="37"/>
-      <c r="D129" s="53"/>
+      <c r="D129" s="52"/>
       <c r="E129" s="37"/>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
@@ -8887,10 +8906,10 @@
       <c r="Y129" s="37"/>
     </row>
     <row r="130" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A130" s="52"/>
+      <c r="A130" s="51"/>
       <c r="B130" s="37"/>
       <c r="C130" s="37"/>
-      <c r="D130" s="53"/>
+      <c r="D130" s="52"/>
       <c r="E130" s="37"/>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
@@ -8914,10 +8933,10 @@
       <c r="Y130" s="37"/>
     </row>
     <row r="131" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A131" s="52"/>
+      <c r="A131" s="51"/>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
-      <c r="D131" s="53"/>
+      <c r="D131" s="52"/>
       <c r="E131" s="37"/>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -8941,10 +8960,10 @@
       <c r="Y131" s="37"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A132" s="52"/>
+      <c r="A132" s="51"/>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
-      <c r="D132" s="53"/>
+      <c r="D132" s="52"/>
       <c r="E132" s="37"/>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -8968,10 +8987,10 @@
       <c r="Y132" s="37"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A133" s="52"/>
+      <c r="A133" s="51"/>
       <c r="B133" s="37"/>
       <c r="C133" s="37"/>
-      <c r="D133" s="53"/>
+      <c r="D133" s="52"/>
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -8995,10 +9014,10 @@
       <c r="Y133" s="37"/>
     </row>
     <row r="134" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A134" s="52"/>
+      <c r="A134" s="51"/>
       <c r="B134" s="37"/>
       <c r="C134" s="37"/>
-      <c r="D134" s="53"/>
+      <c r="D134" s="52"/>
       <c r="E134" s="37"/>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -9022,10 +9041,10 @@
       <c r="Y134" s="37"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A135" s="52"/>
+      <c r="A135" s="51"/>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
-      <c r="D135" s="53"/>
+      <c r="D135" s="52"/>
       <c r="E135" s="37"/>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -9049,10 +9068,10 @@
       <c r="Y135" s="37"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A136" s="52"/>
+      <c r="A136" s="51"/>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
-      <c r="D136" s="53"/>
+      <c r="D136" s="52"/>
       <c r="E136" s="37"/>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -9076,10 +9095,10 @@
       <c r="Y136" s="37"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A137" s="52"/>
+      <c r="A137" s="51"/>
       <c r="B137" s="37"/>
       <c r="C137" s="37"/>
-      <c r="D137" s="53"/>
+      <c r="D137" s="52"/>
       <c r="E137" s="37"/>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -9103,10 +9122,10 @@
       <c r="Y137" s="37"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A138" s="52"/>
+      <c r="A138" s="51"/>
       <c r="B138" s="37"/>
       <c r="C138" s="37"/>
-      <c r="D138" s="53"/>
+      <c r="D138" s="52"/>
       <c r="E138" s="37"/>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -9130,10 +9149,10 @@
       <c r="Y138" s="37"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A139" s="52"/>
+      <c r="A139" s="51"/>
       <c r="B139" s="37"/>
       <c r="C139" s="37"/>
-      <c r="D139" s="53"/>
+      <c r="D139" s="52"/>
       <c r="E139" s="37"/>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -9157,10 +9176,10 @@
       <c r="Y139" s="37"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A140" s="52"/>
+      <c r="A140" s="51"/>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
-      <c r="D140" s="53"/>
+      <c r="D140" s="52"/>
       <c r="E140" s="37"/>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -9184,10 +9203,10 @@
       <c r="Y140" s="37"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A141" s="52"/>
+      <c r="A141" s="51"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
-      <c r="D141" s="53"/>
+      <c r="D141" s="52"/>
       <c r="E141" s="37"/>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -9211,10 +9230,10 @@
       <c r="Y141" s="37"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A142" s="52"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
-      <c r="D142" s="53"/>
+      <c r="D142" s="52"/>
       <c r="E142" s="37"/>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -9238,10 +9257,10 @@
       <c r="Y142" s="37"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A143" s="52"/>
+      <c r="A143" s="51"/>
       <c r="B143" s="37"/>
       <c r="C143" s="37"/>
-      <c r="D143" s="53"/>
+      <c r="D143" s="52"/>
       <c r="E143" s="37"/>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -9265,10 +9284,10 @@
       <c r="Y143" s="37"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A144" s="52"/>
+      <c r="A144" s="51"/>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
-      <c r="D144" s="53"/>
+      <c r="D144" s="52"/>
       <c r="E144" s="37"/>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -9292,10 +9311,10 @@
       <c r="Y144" s="37"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A145" s="52"/>
+      <c r="A145" s="51"/>
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
-      <c r="D145" s="53"/>
+      <c r="D145" s="52"/>
       <c r="E145" s="37"/>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -9319,10 +9338,10 @@
       <c r="Y145" s="37"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A146" s="52"/>
+      <c r="A146" s="51"/>
       <c r="B146" s="37"/>
       <c r="C146" s="37"/>
-      <c r="D146" s="53"/>
+      <c r="D146" s="52"/>
       <c r="E146" s="37"/>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -9346,10 +9365,10 @@
       <c r="Y146" s="37"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A147" s="52"/>
+      <c r="A147" s="51"/>
       <c r="B147" s="37"/>
       <c r="C147" s="37"/>
-      <c r="D147" s="53"/>
+      <c r="D147" s="52"/>
       <c r="E147" s="37"/>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -9373,10 +9392,10 @@
       <c r="Y147" s="37"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A148" s="52"/>
+      <c r="A148" s="51"/>
       <c r="B148" s="37"/>
       <c r="C148" s="37"/>
-      <c r="D148" s="53"/>
+      <c r="D148" s="52"/>
       <c r="E148" s="37"/>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -9400,10 +9419,10 @@
       <c r="Y148" s="37"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A149" s="52"/>
+      <c r="A149" s="51"/>
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
-      <c r="D149" s="53"/>
+      <c r="D149" s="52"/>
       <c r="E149" s="37"/>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -9427,10 +9446,10 @@
       <c r="Y149" s="37"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A150" s="52"/>
+      <c r="A150" s="51"/>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
-      <c r="D150" s="53"/>
+      <c r="D150" s="52"/>
       <c r="E150" s="37"/>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -9454,10 +9473,10 @@
       <c r="Y150" s="37"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A151" s="52"/>
+      <c r="A151" s="51"/>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
-      <c r="D151" s="53"/>
+      <c r="D151" s="52"/>
       <c r="E151" s="37"/>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -9481,10 +9500,10 @@
       <c r="Y151" s="37"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A152" s="52"/>
+      <c r="A152" s="51"/>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
-      <c r="D152" s="53"/>
+      <c r="D152" s="52"/>
       <c r="E152" s="37"/>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -9508,10 +9527,10 @@
       <c r="Y152" s="37"/>
     </row>
     <row r="153" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A153" s="52"/>
+      <c r="A153" s="51"/>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
-      <c r="D153" s="53"/>
+      <c r="D153" s="52"/>
       <c r="E153" s="37"/>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -9535,10 +9554,10 @@
       <c r="Y153" s="37"/>
     </row>
     <row r="154" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A154" s="52"/>
+      <c r="A154" s="51"/>
       <c r="B154" s="37"/>
       <c r="C154" s="37"/>
-      <c r="D154" s="53"/>
+      <c r="D154" s="52"/>
       <c r="E154" s="37"/>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -9562,10 +9581,10 @@
       <c r="Y154" s="37"/>
     </row>
     <row r="155" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A155" s="52"/>
+      <c r="A155" s="51"/>
       <c r="B155" s="37"/>
       <c r="C155" s="37"/>
-      <c r="D155" s="53"/>
+      <c r="D155" s="52"/>
       <c r="E155" s="37"/>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -9589,10 +9608,10 @@
       <c r="Y155" s="37"/>
     </row>
     <row r="156" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A156" s="52"/>
+      <c r="A156" s="51"/>
       <c r="B156" s="37"/>
       <c r="C156" s="37"/>
-      <c r="D156" s="53"/>
+      <c r="D156" s="52"/>
       <c r="E156" s="37"/>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -9616,10 +9635,10 @@
       <c r="Y156" s="37"/>
     </row>
     <row r="157" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A157" s="52"/>
+      <c r="A157" s="51"/>
       <c r="B157" s="37"/>
       <c r="C157" s="37"/>
-      <c r="D157" s="53"/>
+      <c r="D157" s="52"/>
       <c r="E157" s="37"/>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -9643,10 +9662,10 @@
       <c r="Y157" s="37"/>
     </row>
     <row r="158" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A158" s="52"/>
+      <c r="A158" s="51"/>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
-      <c r="D158" s="53"/>
+      <c r="D158" s="52"/>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -9670,10 +9689,10 @@
       <c r="Y158" s="37"/>
     </row>
     <row r="159" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A159" s="52"/>
+      <c r="A159" s="51"/>
       <c r="B159" s="37"/>
       <c r="C159" s="37"/>
-      <c r="D159" s="53"/>
+      <c r="D159" s="52"/>
       <c r="E159" s="37"/>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -9697,10 +9716,10 @@
       <c r="Y159" s="37"/>
     </row>
     <row r="160" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A160" s="52"/>
+      <c r="A160" s="51"/>
       <c r="B160" s="37"/>
       <c r="C160" s="37"/>
-      <c r="D160" s="53"/>
+      <c r="D160" s="52"/>
       <c r="E160" s="37"/>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -9724,10 +9743,10 @@
       <c r="Y160" s="37"/>
     </row>
     <row r="161" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A161" s="52"/>
+      <c r="A161" s="51"/>
       <c r="B161" s="37"/>
       <c r="C161" s="37"/>
-      <c r="D161" s="53"/>
+      <c r="D161" s="52"/>
       <c r="E161" s="37"/>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -9751,10 +9770,10 @@
       <c r="Y161" s="37"/>
     </row>
     <row r="162" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A162" s="52"/>
+      <c r="A162" s="51"/>
       <c r="B162" s="37"/>
       <c r="C162" s="37"/>
-      <c r="D162" s="53"/>
+      <c r="D162" s="52"/>
       <c r="E162" s="37"/>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -9778,10 +9797,10 @@
       <c r="Y162" s="37"/>
     </row>
     <row r="163" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A163" s="52"/>
+      <c r="A163" s="51"/>
       <c r="B163" s="37"/>
       <c r="C163" s="37"/>
-      <c r="D163" s="53"/>
+      <c r="D163" s="52"/>
       <c r="E163" s="37"/>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -9805,10 +9824,10 @@
       <c r="Y163" s="37"/>
     </row>
     <row r="164" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A164" s="52"/>
+      <c r="A164" s="51"/>
       <c r="B164" s="37"/>
       <c r="C164" s="37"/>
-      <c r="D164" s="53"/>
+      <c r="D164" s="52"/>
       <c r="E164" s="37"/>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -9832,10 +9851,10 @@
       <c r="Y164" s="37"/>
     </row>
     <row r="165" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A165" s="52"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="37"/>
       <c r="C165" s="37"/>
-      <c r="D165" s="53"/>
+      <c r="D165" s="52"/>
       <c r="E165" s="37"/>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -9859,10 +9878,10 @@
       <c r="Y165" s="37"/>
     </row>
     <row r="166" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A166" s="52"/>
+      <c r="A166" s="51"/>
       <c r="B166" s="37"/>
       <c r="C166" s="37"/>
-      <c r="D166" s="53"/>
+      <c r="D166" s="52"/>
       <c r="E166" s="37"/>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -9886,10 +9905,10 @@
       <c r="Y166" s="37"/>
     </row>
     <row r="167" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A167" s="52"/>
+      <c r="A167" s="51"/>
       <c r="B167" s="37"/>
       <c r="C167" s="37"/>
-      <c r="D167" s="53"/>
+      <c r="D167" s="52"/>
       <c r="E167" s="37"/>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -9913,10 +9932,10 @@
       <c r="Y167" s="37"/>
     </row>
     <row r="168" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A168" s="52"/>
+      <c r="A168" s="51"/>
       <c r="B168" s="37"/>
       <c r="C168" s="37"/>
-      <c r="D168" s="53"/>
+      <c r="D168" s="52"/>
       <c r="E168" s="37"/>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -9940,10 +9959,10 @@
       <c r="Y168" s="37"/>
     </row>
     <row r="169" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A169" s="52"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="37"/>
       <c r="C169" s="37"/>
-      <c r="D169" s="53"/>
+      <c r="D169" s="52"/>
       <c r="E169" s="37"/>
       <c r="F169" s="37"/>
       <c r="G169" s="37"/>
@@ -9967,10 +9986,10 @@
       <c r="Y169" s="37"/>
     </row>
     <row r="170" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A170" s="52"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="37"/>
       <c r="C170" s="37"/>
-      <c r="D170" s="53"/>
+      <c r="D170" s="52"/>
       <c r="E170" s="37"/>
       <c r="F170" s="37"/>
       <c r="G170" s="37"/>
@@ -9994,10 +10013,10 @@
       <c r="Y170" s="37"/>
     </row>
     <row r="171" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A171" s="52"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="37"/>
       <c r="C171" s="37"/>
-      <c r="D171" s="53"/>
+      <c r="D171" s="52"/>
       <c r="E171" s="37"/>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -10021,10 +10040,10 @@
       <c r="Y171" s="37"/>
     </row>
     <row r="172" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A172" s="52"/>
+      <c r="A172" s="51"/>
       <c r="B172" s="37"/>
       <c r="C172" s="37"/>
-      <c r="D172" s="53"/>
+      <c r="D172" s="52"/>
       <c r="E172" s="37"/>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -10048,10 +10067,10 @@
       <c r="Y172" s="37"/>
     </row>
     <row r="173" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A173" s="52"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="37"/>
       <c r="C173" s="37"/>
-      <c r="D173" s="53"/>
+      <c r="D173" s="52"/>
       <c r="E173" s="37"/>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -10075,10 +10094,10 @@
       <c r="Y173" s="37"/>
     </row>
     <row r="174" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A174" s="52"/>
+      <c r="A174" s="51"/>
       <c r="B174" s="37"/>
       <c r="C174" s="37"/>
-      <c r="D174" s="53"/>
+      <c r="D174" s="52"/>
       <c r="E174" s="37"/>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -10102,10 +10121,10 @@
       <c r="Y174" s="37"/>
     </row>
     <row r="175" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A175" s="52"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="37"/>
       <c r="C175" s="37"/>
-      <c r="D175" s="53"/>
+      <c r="D175" s="52"/>
       <c r="E175" s="37"/>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -10129,10 +10148,10 @@
       <c r="Y175" s="37"/>
     </row>
     <row r="176" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A176" s="52"/>
+      <c r="A176" s="51"/>
       <c r="B176" s="37"/>
       <c r="C176" s="37"/>
-      <c r="D176" s="53"/>
+      <c r="D176" s="52"/>
       <c r="E176" s="37"/>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -10156,10 +10175,10 @@
       <c r="Y176" s="37"/>
     </row>
     <row r="177" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A177" s="52"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="37"/>
       <c r="C177" s="37"/>
-      <c r="D177" s="53"/>
+      <c r="D177" s="52"/>
       <c r="E177" s="37"/>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -10183,10 +10202,10 @@
       <c r="Y177" s="37"/>
     </row>
     <row r="178" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A178" s="52"/>
+      <c r="A178" s="51"/>
       <c r="B178" s="37"/>
       <c r="C178" s="37"/>
-      <c r="D178" s="53"/>
+      <c r="D178" s="52"/>
       <c r="E178" s="37"/>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -10210,10 +10229,10 @@
       <c r="Y178" s="37"/>
     </row>
     <row r="179" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A179" s="52"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="37"/>
       <c r="C179" s="37"/>
-      <c r="D179" s="53"/>
+      <c r="D179" s="52"/>
       <c r="E179" s="37"/>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -10237,10 +10256,10 @@
       <c r="Y179" s="37"/>
     </row>
     <row r="180" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A180" s="52"/>
+      <c r="A180" s="51"/>
       <c r="B180" s="37"/>
       <c r="C180" s="37"/>
-      <c r="D180" s="53"/>
+      <c r="D180" s="52"/>
       <c r="E180" s="37"/>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -10264,10 +10283,10 @@
       <c r="Y180" s="37"/>
     </row>
     <row r="181" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A181" s="52"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="37"/>
       <c r="C181" s="37"/>
-      <c r="D181" s="53"/>
+      <c r="D181" s="52"/>
       <c r="E181" s="37"/>
       <c r="F181" s="37"/>
       <c r="G181" s="37"/>
@@ -10291,10 +10310,10 @@
       <c r="Y181" s="37"/>
     </row>
     <row r="182" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A182" s="52"/>
+      <c r="A182" s="51"/>
       <c r="B182" s="37"/>
       <c r="C182" s="37"/>
-      <c r="D182" s="53"/>
+      <c r="D182" s="52"/>
       <c r="E182" s="37"/>
       <c r="F182" s="37"/>
       <c r="G182" s="37"/>
@@ -10318,10 +10337,10 @@
       <c r="Y182" s="37"/>
     </row>
     <row r="183" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A183" s="52"/>
+      <c r="A183" s="51"/>
       <c r="B183" s="37"/>
       <c r="C183" s="37"/>
-      <c r="D183" s="53"/>
+      <c r="D183" s="52"/>
       <c r="E183" s="37"/>
       <c r="F183" s="37"/>
       <c r="G183" s="37"/>
@@ -10345,10 +10364,10 @@
       <c r="Y183" s="37"/>
     </row>
     <row r="184" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A184" s="52"/>
+      <c r="A184" s="51"/>
       <c r="B184" s="37"/>
       <c r="C184" s="37"/>
-      <c r="D184" s="53"/>
+      <c r="D184" s="52"/>
       <c r="E184" s="37"/>
       <c r="F184" s="37"/>
       <c r="G184" s="37"/>
@@ -10372,10 +10391,10 @@
       <c r="Y184" s="37"/>
     </row>
     <row r="185" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A185" s="52"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="37"/>
       <c r="C185" s="37"/>
-      <c r="D185" s="53"/>
+      <c r="D185" s="52"/>
       <c r="E185" s="37"/>
       <c r="F185" s="37"/>
       <c r="G185" s="37"/>
@@ -10399,10 +10418,10 @@
       <c r="Y185" s="37"/>
     </row>
     <row r="186" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A186" s="52"/>
+      <c r="A186" s="51"/>
       <c r="B186" s="37"/>
       <c r="C186" s="37"/>
-      <c r="D186" s="53"/>
+      <c r="D186" s="52"/>
       <c r="E186" s="37"/>
       <c r="F186" s="37"/>
       <c r="G186" s="37"/>
@@ -10426,10 +10445,10 @@
       <c r="Y186" s="37"/>
     </row>
     <row r="187" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A187" s="52"/>
+      <c r="A187" s="51"/>
       <c r="B187" s="37"/>
       <c r="C187" s="37"/>
-      <c r="D187" s="53"/>
+      <c r="D187" s="52"/>
       <c r="E187" s="37"/>
       <c r="F187" s="37"/>
       <c r="G187" s="37"/>
@@ -10453,10 +10472,10 @@
       <c r="Y187" s="37"/>
     </row>
     <row r="188" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A188" s="52"/>
+      <c r="A188" s="51"/>
       <c r="B188" s="37"/>
       <c r="C188" s="37"/>
-      <c r="D188" s="53"/>
+      <c r="D188" s="52"/>
       <c r="E188" s="37"/>
       <c r="F188" s="37"/>
       <c r="G188" s="37"/>
@@ -10480,10 +10499,10 @@
       <c r="Y188" s="37"/>
     </row>
     <row r="189" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A189" s="52"/>
+      <c r="A189" s="51"/>
       <c r="B189" s="37"/>
       <c r="C189" s="37"/>
-      <c r="D189" s="53"/>
+      <c r="D189" s="52"/>
       <c r="E189" s="37"/>
       <c r="F189" s="37"/>
       <c r="G189" s="37"/>
@@ -10507,10 +10526,10 @@
       <c r="Y189" s="37"/>
     </row>
     <row r="190" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A190" s="52"/>
+      <c r="A190" s="51"/>
       <c r="B190" s="37"/>
       <c r="C190" s="37"/>
-      <c r="D190" s="53"/>
+      <c r="D190" s="52"/>
       <c r="E190" s="37"/>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
@@ -10534,10 +10553,10 @@
       <c r="Y190" s="37"/>
     </row>
     <row r="191" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A191" s="52"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="37"/>
       <c r="C191" s="37"/>
-      <c r="D191" s="53"/>
+      <c r="D191" s="52"/>
       <c r="E191" s="37"/>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
@@ -10561,10 +10580,10 @@
       <c r="Y191" s="37"/>
     </row>
     <row r="192" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A192" s="52"/>
+      <c r="A192" s="51"/>
       <c r="B192" s="37"/>
       <c r="C192" s="37"/>
-      <c r="D192" s="53"/>
+      <c r="D192" s="52"/>
       <c r="E192" s="37"/>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
@@ -10588,10 +10607,10 @@
       <c r="Y192" s="37"/>
     </row>
     <row r="193" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A193" s="52"/>
+      <c r="A193" s="51"/>
       <c r="B193" s="37"/>
       <c r="C193" s="37"/>
-      <c r="D193" s="53"/>
+      <c r="D193" s="52"/>
       <c r="E193" s="37"/>
       <c r="F193" s="37"/>
       <c r="G193" s="37"/>
@@ -10615,10 +10634,10 @@
       <c r="Y193" s="37"/>
     </row>
     <row r="194" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A194" s="52"/>
+      <c r="A194" s="51"/>
       <c r="B194" s="37"/>
       <c r="C194" s="37"/>
-      <c r="D194" s="53"/>
+      <c r="D194" s="52"/>
       <c r="E194" s="37"/>
       <c r="F194" s="37"/>
       <c r="G194" s="37"/>
@@ -10642,10 +10661,10 @@
       <c r="Y194" s="37"/>
     </row>
     <row r="195" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A195" s="52"/>
+      <c r="A195" s="51"/>
       <c r="B195" s="37"/>
       <c r="C195" s="37"/>
-      <c r="D195" s="53"/>
+      <c r="D195" s="52"/>
       <c r="E195" s="37"/>
       <c r="F195" s="37"/>
       <c r="G195" s="37"/>
@@ -10669,10 +10688,10 @@
       <c r="Y195" s="37"/>
     </row>
     <row r="196" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A196" s="52"/>
+      <c r="A196" s="51"/>
       <c r="B196" s="37"/>
       <c r="C196" s="37"/>
-      <c r="D196" s="53"/>
+      <c r="D196" s="52"/>
       <c r="E196" s="37"/>
       <c r="F196" s="37"/>
       <c r="G196" s="37"/>
@@ -10696,10 +10715,10 @@
       <c r="Y196" s="37"/>
     </row>
     <row r="197" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A197" s="52"/>
+      <c r="A197" s="51"/>
       <c r="B197" s="37"/>
       <c r="C197" s="37"/>
-      <c r="D197" s="53"/>
+      <c r="D197" s="52"/>
       <c r="E197" s="37"/>
       <c r="F197" s="37"/>
       <c r="G197" s="37"/>
@@ -10723,10 +10742,10 @@
       <c r="Y197" s="37"/>
     </row>
     <row r="198" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A198" s="52"/>
+      <c r="A198" s="51"/>
       <c r="B198" s="37"/>
       <c r="C198" s="37"/>
-      <c r="D198" s="53"/>
+      <c r="D198" s="52"/>
       <c r="E198" s="37"/>
       <c r="F198" s="37"/>
       <c r="G198" s="37"/>
@@ -10750,10 +10769,10 @@
       <c r="Y198" s="37"/>
     </row>
     <row r="199" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A199" s="52"/>
+      <c r="A199" s="51"/>
       <c r="B199" s="37"/>
       <c r="C199" s="37"/>
-      <c r="D199" s="53"/>
+      <c r="D199" s="52"/>
       <c r="E199" s="37"/>
       <c r="F199" s="37"/>
       <c r="G199" s="37"/>
@@ -10777,10 +10796,10 @@
       <c r="Y199" s="37"/>
     </row>
     <row r="200" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A200" s="52"/>
+      <c r="A200" s="51"/>
       <c r="B200" s="37"/>
       <c r="C200" s="37"/>
-      <c r="D200" s="53"/>
+      <c r="D200" s="52"/>
       <c r="E200" s="37"/>
       <c r="F200" s="37"/>
       <c r="G200" s="37"/>
@@ -10804,10 +10823,10 @@
       <c r="Y200" s="37"/>
     </row>
     <row r="201" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A201" s="52"/>
+      <c r="A201" s="51"/>
       <c r="B201" s="37"/>
       <c r="C201" s="37"/>
-      <c r="D201" s="53"/>
+      <c r="D201" s="52"/>
       <c r="E201" s="37"/>
       <c r="F201" s="37"/>
       <c r="G201" s="37"/>
@@ -10831,10 +10850,10 @@
       <c r="Y201" s="37"/>
     </row>
     <row r="202" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A202" s="52"/>
+      <c r="A202" s="51"/>
       <c r="B202" s="37"/>
       <c r="C202" s="37"/>
-      <c r="D202" s="53"/>
+      <c r="D202" s="52"/>
       <c r="E202" s="37"/>
       <c r="F202" s="37"/>
       <c r="G202" s="37"/>
@@ -10858,10 +10877,10 @@
       <c r="Y202" s="37"/>
     </row>
     <row r="203" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A203" s="52"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="37"/>
       <c r="C203" s="37"/>
-      <c r="D203" s="53"/>
+      <c r="D203" s="52"/>
       <c r="E203" s="37"/>
       <c r="F203" s="37"/>
       <c r="G203" s="37"/>
@@ -10885,10 +10904,10 @@
       <c r="Y203" s="37"/>
     </row>
     <row r="204" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A204" s="52"/>
+      <c r="A204" s="51"/>
       <c r="B204" s="37"/>
       <c r="C204" s="37"/>
-      <c r="D204" s="53"/>
+      <c r="D204" s="52"/>
       <c r="E204" s="37"/>
       <c r="F204" s="37"/>
       <c r="G204" s="37"/>
@@ -10912,10 +10931,10 @@
       <c r="Y204" s="37"/>
     </row>
     <row r="205" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A205" s="52"/>
+      <c r="A205" s="51"/>
       <c r="B205" s="37"/>
       <c r="C205" s="37"/>
-      <c r="D205" s="53"/>
+      <c r="D205" s="52"/>
       <c r="E205" s="37"/>
       <c r="F205" s="37"/>
       <c r="G205" s="37"/>
@@ -10939,10 +10958,10 @@
       <c r="Y205" s="37"/>
     </row>
     <row r="206" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A206" s="52"/>
+      <c r="A206" s="51"/>
       <c r="B206" s="37"/>
       <c r="C206" s="37"/>
-      <c r="D206" s="53"/>
+      <c r="D206" s="52"/>
       <c r="E206" s="37"/>
       <c r="F206" s="37"/>
       <c r="G206" s="37"/>
@@ -10966,10 +10985,10 @@
       <c r="Y206" s="37"/>
     </row>
     <row r="207" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A207" s="52"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="37"/>
       <c r="C207" s="37"/>
-      <c r="D207" s="53"/>
+      <c r="D207" s="52"/>
       <c r="E207" s="37"/>
       <c r="F207" s="37"/>
       <c r="G207" s="37"/>
@@ -10993,10 +11012,10 @@
       <c r="Y207" s="37"/>
     </row>
     <row r="208" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A208" s="52"/>
+      <c r="A208" s="51"/>
       <c r="B208" s="37"/>
       <c r="C208" s="37"/>
-      <c r="D208" s="53"/>
+      <c r="D208" s="52"/>
       <c r="E208" s="37"/>
       <c r="F208" s="37"/>
       <c r="G208" s="37"/>
@@ -11020,10 +11039,10 @@
       <c r="Y208" s="37"/>
     </row>
     <row r="209" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A209" s="52"/>
+      <c r="A209" s="51"/>
       <c r="B209" s="37"/>
       <c r="C209" s="37"/>
-      <c r="D209" s="53"/>
+      <c r="D209" s="52"/>
       <c r="E209" s="37"/>
       <c r="F209" s="37"/>
       <c r="G209" s="37"/>
@@ -11047,10 +11066,10 @@
       <c r="Y209" s="37"/>
     </row>
     <row r="210" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A210" s="52"/>
+      <c r="A210" s="51"/>
       <c r="B210" s="37"/>
       <c r="C210" s="37"/>
-      <c r="D210" s="53"/>
+      <c r="D210" s="52"/>
       <c r="E210" s="37"/>
       <c r="F210" s="37"/>
       <c r="G210" s="37"/>
@@ -11074,10 +11093,10 @@
       <c r="Y210" s="37"/>
     </row>
     <row r="211" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A211" s="52"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="37"/>
       <c r="C211" s="37"/>
-      <c r="D211" s="53"/>
+      <c r="D211" s="52"/>
       <c r="E211" s="37"/>
       <c r="F211" s="37"/>
       <c r="G211" s="37"/>
@@ -11101,10 +11120,10 @@
       <c r="Y211" s="37"/>
     </row>
     <row r="212" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A212" s="52"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="37"/>
       <c r="C212" s="37"/>
-      <c r="D212" s="53"/>
+      <c r="D212" s="52"/>
       <c r="E212" s="37"/>
       <c r="F212" s="37"/>
       <c r="G212" s="37"/>
@@ -11128,10 +11147,10 @@
       <c r="Y212" s="37"/>
     </row>
     <row r="213" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A213" s="52"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="37"/>
       <c r="C213" s="37"/>
-      <c r="D213" s="53"/>
+      <c r="D213" s="52"/>
       <c r="E213" s="37"/>
       <c r="F213" s="37"/>
       <c r="G213" s="37"/>
@@ -11155,10 +11174,10 @@
       <c r="Y213" s="37"/>
     </row>
     <row r="214" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A214" s="52"/>
+      <c r="A214" s="51"/>
       <c r="B214" s="37"/>
       <c r="C214" s="37"/>
-      <c r="D214" s="53"/>
+      <c r="D214" s="52"/>
       <c r="E214" s="37"/>
       <c r="F214" s="37"/>
       <c r="G214" s="37"/>
@@ -11182,10 +11201,10 @@
       <c r="Y214" s="37"/>
     </row>
     <row r="215" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A215" s="52"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="37"/>
       <c r="C215" s="37"/>
-      <c r="D215" s="53"/>
+      <c r="D215" s="52"/>
       <c r="E215" s="37"/>
       <c r="F215" s="37"/>
       <c r="G215" s="37"/>
@@ -11209,10 +11228,10 @@
       <c r="Y215" s="37"/>
     </row>
     <row r="216" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A216" s="52"/>
+      <c r="A216" s="51"/>
       <c r="B216" s="37"/>
       <c r="C216" s="37"/>
-      <c r="D216" s="53"/>
+      <c r="D216" s="52"/>
       <c r="E216" s="37"/>
       <c r="F216" s="37"/>
       <c r="G216" s="37"/>
@@ -11236,10 +11255,10 @@
       <c r="Y216" s="37"/>
     </row>
     <row r="217" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A217" s="52"/>
+      <c r="A217" s="51"/>
       <c r="B217" s="37"/>
       <c r="C217" s="37"/>
-      <c r="D217" s="53"/>
+      <c r="D217" s="52"/>
       <c r="E217" s="37"/>
       <c r="F217" s="37"/>
       <c r="G217" s="37"/>
@@ -11263,10 +11282,10 @@
       <c r="Y217" s="37"/>
     </row>
     <row r="218" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A218" s="52"/>
+      <c r="A218" s="51"/>
       <c r="B218" s="37"/>
       <c r="C218" s="37"/>
-      <c r="D218" s="53"/>
+      <c r="D218" s="52"/>
       <c r="E218" s="37"/>
       <c r="F218" s="37"/>
       <c r="G218" s="37"/>
@@ -11290,10 +11309,10 @@
       <c r="Y218" s="37"/>
     </row>
     <row r="219" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A219" s="52"/>
+      <c r="A219" s="51"/>
       <c r="B219" s="37"/>
       <c r="C219" s="37"/>
-      <c r="D219" s="53"/>
+      <c r="D219" s="52"/>
       <c r="E219" s="37"/>
       <c r="F219" s="37"/>
       <c r="G219" s="37"/>
@@ -11317,10 +11336,10 @@
       <c r="Y219" s="37"/>
     </row>
     <row r="220" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A220" s="52"/>
+      <c r="A220" s="51"/>
       <c r="B220" s="37"/>
       <c r="C220" s="37"/>
-      <c r="D220" s="53"/>
+      <c r="D220" s="52"/>
       <c r="E220" s="37"/>
       <c r="F220" s="37"/>
       <c r="G220" s="37"/>
@@ -11344,10 +11363,10 @@
       <c r="Y220" s="37"/>
     </row>
     <row r="221" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A221" s="52"/>
+      <c r="A221" s="51"/>
       <c r="B221" s="37"/>
       <c r="C221" s="37"/>
-      <c r="D221" s="53"/>
+      <c r="D221" s="52"/>
       <c r="E221" s="37"/>
       <c r="F221" s="37"/>
       <c r="G221" s="37"/>
@@ -11371,10 +11390,10 @@
       <c r="Y221" s="37"/>
     </row>
     <row r="222" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A222" s="52"/>
+      <c r="A222" s="51"/>
       <c r="B222" s="37"/>
       <c r="C222" s="37"/>
-      <c r="D222" s="53"/>
+      <c r="D222" s="52"/>
       <c r="E222" s="37"/>
       <c r="F222" s="37"/>
       <c r="G222" s="37"/>
@@ -11398,10 +11417,10 @@
       <c r="Y222" s="37"/>
     </row>
     <row r="223" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A223" s="52"/>
+      <c r="A223" s="51"/>
       <c r="B223" s="37"/>
       <c r="C223" s="37"/>
-      <c r="D223" s="53"/>
+      <c r="D223" s="52"/>
       <c r="E223" s="37"/>
       <c r="F223" s="37"/>
       <c r="G223" s="37"/>
@@ -11425,10 +11444,10 @@
       <c r="Y223" s="37"/>
     </row>
     <row r="224" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A224" s="52"/>
+      <c r="A224" s="51"/>
       <c r="B224" s="37"/>
       <c r="C224" s="37"/>
-      <c r="D224" s="53"/>
+      <c r="D224" s="52"/>
       <c r="E224" s="37"/>
       <c r="F224" s="37"/>
       <c r="G224" s="37"/>
@@ -11452,10 +11471,10 @@
       <c r="Y224" s="37"/>
     </row>
     <row r="225" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A225" s="52"/>
+      <c r="A225" s="51"/>
       <c r="B225" s="37"/>
       <c r="C225" s="37"/>
-      <c r="D225" s="53"/>
+      <c r="D225" s="52"/>
       <c r="E225" s="37"/>
       <c r="F225" s="37"/>
       <c r="G225" s="37"/>
@@ -11479,10 +11498,10 @@
       <c r="Y225" s="37"/>
     </row>
     <row r="226" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A226" s="52"/>
+      <c r="A226" s="51"/>
       <c r="B226" s="37"/>
       <c r="C226" s="37"/>
-      <c r="D226" s="53"/>
+      <c r="D226" s="52"/>
       <c r="E226" s="37"/>
       <c r="F226" s="37"/>
       <c r="G226" s="37"/>
@@ -11506,10 +11525,10 @@
       <c r="Y226" s="37"/>
     </row>
     <row r="227" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A227" s="52"/>
+      <c r="A227" s="51"/>
       <c r="B227" s="37"/>
       <c r="C227" s="37"/>
-      <c r="D227" s="53"/>
+      <c r="D227" s="52"/>
       <c r="E227" s="37"/>
       <c r="F227" s="37"/>
       <c r="G227" s="37"/>
@@ -11533,10 +11552,10 @@
       <c r="Y227" s="37"/>
     </row>
     <row r="228" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A228" s="52"/>
+      <c r="A228" s="51"/>
       <c r="B228" s="37"/>
       <c r="C228" s="37"/>
-      <c r="D228" s="53"/>
+      <c r="D228" s="52"/>
       <c r="E228" s="37"/>
       <c r="F228" s="37"/>
       <c r="G228" s="37"/>
@@ -11560,10 +11579,10 @@
       <c r="Y228" s="37"/>
     </row>
     <row r="229" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A229" s="52"/>
+      <c r="A229" s="51"/>
       <c r="B229" s="37"/>
       <c r="C229" s="37"/>
-      <c r="D229" s="53"/>
+      <c r="D229" s="52"/>
       <c r="E229" s="37"/>
       <c r="F229" s="37"/>
       <c r="G229" s="37"/>
@@ -11587,10 +11606,10 @@
       <c r="Y229" s="37"/>
     </row>
     <row r="230" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A230" s="52"/>
+      <c r="A230" s="51"/>
       <c r="B230" s="37"/>
       <c r="C230" s="37"/>
-      <c r="D230" s="53"/>
+      <c r="D230" s="52"/>
       <c r="E230" s="37"/>
       <c r="F230" s="37"/>
       <c r="G230" s="37"/>
@@ -11614,10 +11633,10 @@
       <c r="Y230" s="37"/>
     </row>
     <row r="231" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A231" s="52"/>
+      <c r="A231" s="51"/>
       <c r="B231" s="37"/>
       <c r="C231" s="37"/>
-      <c r="D231" s="53"/>
+      <c r="D231" s="52"/>
       <c r="E231" s="37"/>
       <c r="F231" s="37"/>
       <c r="G231" s="37"/>
@@ -11641,10 +11660,10 @@
       <c r="Y231" s="37"/>
     </row>
     <row r="232" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A232" s="52"/>
+      <c r="A232" s="51"/>
       <c r="B232" s="37"/>
       <c r="C232" s="37"/>
-      <c r="D232" s="53"/>
+      <c r="D232" s="52"/>
       <c r="E232" s="37"/>
       <c r="F232" s="37"/>
       <c r="G232" s="37"/>
@@ -11668,10 +11687,10 @@
       <c r="Y232" s="37"/>
     </row>
     <row r="233" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A233" s="52"/>
+      <c r="A233" s="51"/>
       <c r="B233" s="37"/>
       <c r="C233" s="37"/>
-      <c r="D233" s="53"/>
+      <c r="D233" s="52"/>
       <c r="E233" s="37"/>
       <c r="F233" s="37"/>
       <c r="G233" s="37"/>
@@ -11695,10 +11714,10 @@
       <c r="Y233" s="37"/>
     </row>
     <row r="234" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A234" s="52"/>
+      <c r="A234" s="51"/>
       <c r="B234" s="37"/>
       <c r="C234" s="37"/>
-      <c r="D234" s="53"/>
+      <c r="D234" s="52"/>
       <c r="E234" s="37"/>
       <c r="F234" s="37"/>
       <c r="G234" s="37"/>
@@ -11722,10 +11741,10 @@
       <c r="Y234" s="37"/>
     </row>
     <row r="235" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A235" s="52"/>
+      <c r="A235" s="51"/>
       <c r="B235" s="37"/>
       <c r="C235" s="37"/>
-      <c r="D235" s="53"/>
+      <c r="D235" s="52"/>
       <c r="E235" s="37"/>
       <c r="F235" s="37"/>
       <c r="G235" s="37"/>
@@ -11749,10 +11768,10 @@
       <c r="Y235" s="37"/>
     </row>
     <row r="236" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A236" s="52"/>
+      <c r="A236" s="51"/>
       <c r="B236" s="37"/>
       <c r="C236" s="37"/>
-      <c r="D236" s="53"/>
+      <c r="D236" s="52"/>
       <c r="E236" s="37"/>
       <c r="F236" s="37"/>
       <c r="G236" s="37"/>
@@ -11776,10 +11795,10 @@
       <c r="Y236" s="37"/>
     </row>
     <row r="237" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A237" s="52"/>
+      <c r="A237" s="51"/>
       <c r="B237" s="37"/>
       <c r="C237" s="37"/>
-      <c r="D237" s="53"/>
+      <c r="D237" s="52"/>
       <c r="E237" s="37"/>
       <c r="F237" s="37"/>
       <c r="G237" s="37"/>
@@ -11803,10 +11822,10 @@
       <c r="Y237" s="37"/>
     </row>
     <row r="238" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A238" s="52"/>
+      <c r="A238" s="51"/>
       <c r="B238" s="37"/>
       <c r="C238" s="37"/>
-      <c r="D238" s="53"/>
+      <c r="D238" s="52"/>
       <c r="E238" s="37"/>
       <c r="F238" s="37"/>
       <c r="G238" s="37"/>
@@ -12610,9 +12629,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="C1:E1000"/>
+  <dimension ref="C1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12623,798 +12644,857 @@
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C1" s="54"/>
-    </row>
-    <row r="2" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C2" s="62" t="s">
+    <row r="1" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C1" s="53"/>
+    </row>
+    <row r="2" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C2" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+    </row>
+    <row r="3" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C3" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C4" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-    </row>
-    <row r="3" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C3" s="40" t="s">
+      <c r="D4" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E4" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C4" s="63" t="s">
+      <c r="F4" s="67" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C5" s="58"/>
+      <c r="D5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C6" s="59"/>
+      <c r="D6" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C5" s="59"/>
-      <c r="D5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C7" s="64" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C6" s="60"/>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C7" s="63" t="s">
+      <c r="F7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C8" s="58"/>
+      <c r="D8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C9" s="59"/>
+      <c r="D9" s="7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C8" s="59"/>
-      <c r="D8" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C10" s="64" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C9" s="60"/>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C10" s="63" t="s">
+      <c r="F10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C11" s="58"/>
+      <c r="D11" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C12" s="59"/>
+      <c r="D12" s="7" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C11" s="59"/>
-      <c r="D11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C13" s="64" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C12" s="60"/>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C13" s="63" t="s">
+      <c r="F13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C14" s="58"/>
+      <c r="D14" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C15" s="59"/>
+      <c r="D15" s="7" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C14" s="59"/>
-      <c r="D14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C16" s="64" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C15" s="60"/>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C16" s="63" t="s">
+      <c r="F16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C17" s="58"/>
+      <c r="D17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C18" s="59"/>
+      <c r="D18" s="7" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C17" s="59"/>
-      <c r="D17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C19" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C18" s="60"/>
-      <c r="D18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C20" s="58"/>
+      <c r="D20" s="7" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C19" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C21" s="59"/>
+      <c r="D21" s="7" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C20" s="59"/>
-      <c r="D20" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C21" s="60"/>
-      <c r="D21" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C22" s="54"/>
-    </row>
-    <row r="23" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C23" s="54"/>
-    </row>
-    <row r="24" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C24" s="54"/>
-    </row>
-    <row r="25" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C25" s="54"/>
-    </row>
-    <row r="26" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C26" s="54"/>
-    </row>
-    <row r="27" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C27" s="54"/>
-    </row>
-    <row r="28" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C28" s="54"/>
-    </row>
-    <row r="29" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C29" s="54"/>
-    </row>
-    <row r="30" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C30" s="54"/>
-    </row>
-    <row r="31" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C31" s="54"/>
-    </row>
-    <row r="32" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C32" s="54"/>
+      <c r="F21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C22" s="53"/>
+    </row>
+    <row r="23" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C24" s="53"/>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C25" s="53"/>
+    </row>
+    <row r="26" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C26" s="53"/>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C27" s="53"/>
+    </row>
+    <row r="28" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C28" s="53"/>
+    </row>
+    <row r="29" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C29" s="53"/>
+    </row>
+    <row r="30" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C30" s="53"/>
+    </row>
+    <row r="31" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C31" s="53"/>
+    </row>
+    <row r="32" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C32" s="53"/>
     </row>
     <row r="33" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C33" s="54"/>
+      <c r="C33" s="53"/>
     </row>
     <row r="34" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C34" s="54"/>
+      <c r="C34" s="53"/>
     </row>
     <row r="35" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C35" s="54"/>
+      <c r="C35" s="53"/>
     </row>
     <row r="36" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C36" s="54"/>
+      <c r="C36" s="53"/>
     </row>
     <row r="37" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C37" s="54"/>
+      <c r="C37" s="53"/>
     </row>
     <row r="38" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C38" s="54"/>
+      <c r="C38" s="53"/>
     </row>
     <row r="39" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C39" s="54"/>
+      <c r="C39" s="53"/>
     </row>
     <row r="40" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C40" s="54"/>
+      <c r="C40" s="53"/>
     </row>
     <row r="41" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C41" s="54"/>
+      <c r="C41" s="53"/>
     </row>
     <row r="42" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C42" s="54"/>
+      <c r="C42" s="53"/>
     </row>
     <row r="43" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C43" s="54"/>
+      <c r="C43" s="53"/>
     </row>
     <row r="44" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C44" s="54"/>
+      <c r="C44" s="53"/>
     </row>
     <row r="45" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C45" s="54"/>
+      <c r="C45" s="53"/>
     </row>
     <row r="46" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C46" s="54"/>
+      <c r="C46" s="53"/>
     </row>
     <row r="47" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C47" s="54"/>
+      <c r="C47" s="53"/>
     </row>
     <row r="48" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C48" s="54"/>
+      <c r="C48" s="53"/>
     </row>
     <row r="49" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C49" s="54"/>
+      <c r="C49" s="53"/>
     </row>
     <row r="50" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C50" s="54"/>
+      <c r="C50" s="53"/>
     </row>
     <row r="51" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C51" s="54"/>
+      <c r="C51" s="53"/>
     </row>
     <row r="52" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C52" s="54"/>
+      <c r="C52" s="53"/>
     </row>
     <row r="53" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C53" s="54"/>
+      <c r="C53" s="53"/>
     </row>
     <row r="54" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C54" s="54"/>
+      <c r="C54" s="53"/>
     </row>
     <row r="55" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C55" s="54"/>
+      <c r="C55" s="53"/>
     </row>
     <row r="56" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C56" s="54"/>
+      <c r="C56" s="53"/>
     </row>
     <row r="57" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C57" s="54"/>
+      <c r="C57" s="53"/>
     </row>
     <row r="58" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C58" s="54"/>
+      <c r="C58" s="53"/>
     </row>
     <row r="59" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C59" s="54"/>
+      <c r="C59" s="53"/>
     </row>
     <row r="60" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C60" s="54"/>
+      <c r="C60" s="53"/>
     </row>
     <row r="61" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C61" s="54"/>
+      <c r="C61" s="53"/>
     </row>
     <row r="62" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C62" s="54"/>
+      <c r="C62" s="53"/>
     </row>
     <row r="63" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C63" s="54"/>
+      <c r="C63" s="53"/>
     </row>
     <row r="64" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C64" s="54"/>
+      <c r="C64" s="53"/>
     </row>
     <row r="65" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C65" s="54"/>
+      <c r="C65" s="53"/>
     </row>
     <row r="66" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C66" s="54"/>
+      <c r="C66" s="53"/>
     </row>
     <row r="67" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C67" s="54"/>
+      <c r="C67" s="53"/>
     </row>
     <row r="68" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C68" s="54"/>
+      <c r="C68" s="53"/>
     </row>
     <row r="69" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C69" s="54"/>
+      <c r="C69" s="53"/>
     </row>
     <row r="70" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C70" s="54"/>
+      <c r="C70" s="53"/>
     </row>
     <row r="71" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C71" s="54"/>
+      <c r="C71" s="53"/>
     </row>
     <row r="72" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C72" s="54"/>
+      <c r="C72" s="53"/>
     </row>
     <row r="73" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C73" s="54"/>
+      <c r="C73" s="53"/>
     </row>
     <row r="74" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C74" s="54"/>
+      <c r="C74" s="53"/>
     </row>
     <row r="75" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C75" s="54"/>
+      <c r="C75" s="53"/>
     </row>
     <row r="76" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C76" s="54"/>
+      <c r="C76" s="53"/>
     </row>
     <row r="77" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C77" s="54"/>
+      <c r="C77" s="53"/>
     </row>
     <row r="78" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C78" s="54"/>
+      <c r="C78" s="53"/>
     </row>
     <row r="79" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C79" s="54"/>
+      <c r="C79" s="53"/>
     </row>
     <row r="80" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C80" s="54"/>
+      <c r="C80" s="53"/>
     </row>
     <row r="81" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C81" s="54"/>
+      <c r="C81" s="53"/>
     </row>
     <row r="82" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C82" s="54"/>
+      <c r="C82" s="53"/>
     </row>
     <row r="83" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C83" s="54"/>
+      <c r="C83" s="53"/>
     </row>
     <row r="84" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C84" s="54"/>
+      <c r="C84" s="53"/>
     </row>
     <row r="85" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C85" s="54"/>
+      <c r="C85" s="53"/>
     </row>
     <row r="86" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C86" s="54"/>
+      <c r="C86" s="53"/>
     </row>
     <row r="87" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C87" s="54"/>
+      <c r="C87" s="53"/>
     </row>
     <row r="88" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C88" s="54"/>
+      <c r="C88" s="53"/>
     </row>
     <row r="89" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C89" s="54"/>
+      <c r="C89" s="53"/>
     </row>
     <row r="90" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C90" s="54"/>
+      <c r="C90" s="53"/>
     </row>
     <row r="91" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C91" s="54"/>
+      <c r="C91" s="53"/>
     </row>
     <row r="92" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C92" s="54"/>
+      <c r="C92" s="53"/>
     </row>
     <row r="93" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C93" s="54"/>
+      <c r="C93" s="53"/>
     </row>
     <row r="94" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C94" s="54"/>
+      <c r="C94" s="53"/>
     </row>
     <row r="95" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C95" s="54"/>
+      <c r="C95" s="53"/>
     </row>
     <row r="96" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C96" s="54"/>
+      <c r="C96" s="53"/>
     </row>
     <row r="97" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C97" s="54"/>
+      <c r="C97" s="53"/>
     </row>
     <row r="98" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C98" s="54"/>
+      <c r="C98" s="53"/>
     </row>
     <row r="99" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C99" s="54"/>
+      <c r="C99" s="53"/>
     </row>
     <row r="100" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C100" s="54"/>
+      <c r="C100" s="53"/>
     </row>
     <row r="101" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C101" s="54"/>
+      <c r="C101" s="53"/>
     </row>
     <row r="102" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C102" s="54"/>
+      <c r="C102" s="53"/>
     </row>
     <row r="103" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C103" s="54"/>
+      <c r="C103" s="53"/>
     </row>
     <row r="104" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C104" s="54"/>
+      <c r="C104" s="53"/>
     </row>
     <row r="105" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C105" s="54"/>
+      <c r="C105" s="53"/>
     </row>
     <row r="106" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C106" s="54"/>
+      <c r="C106" s="53"/>
     </row>
     <row r="107" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C107" s="54"/>
+      <c r="C107" s="53"/>
     </row>
     <row r="108" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C108" s="54"/>
+      <c r="C108" s="53"/>
     </row>
     <row r="109" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C109" s="54"/>
+      <c r="C109" s="53"/>
     </row>
     <row r="110" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C110" s="54"/>
+      <c r="C110" s="53"/>
     </row>
     <row r="111" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C111" s="54"/>
+      <c r="C111" s="53"/>
     </row>
     <row r="112" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C112" s="54"/>
+      <c r="C112" s="53"/>
     </row>
     <row r="113" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C113" s="54"/>
+      <c r="C113" s="53"/>
     </row>
     <row r="114" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C114" s="54"/>
+      <c r="C114" s="53"/>
     </row>
     <row r="115" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C115" s="54"/>
+      <c r="C115" s="53"/>
     </row>
     <row r="116" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C116" s="54"/>
+      <c r="C116" s="53"/>
     </row>
     <row r="117" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C117" s="54"/>
+      <c r="C117" s="53"/>
     </row>
     <row r="118" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C118" s="54"/>
+      <c r="C118" s="53"/>
     </row>
     <row r="119" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C119" s="54"/>
+      <c r="C119" s="53"/>
     </row>
     <row r="120" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C120" s="54"/>
+      <c r="C120" s="53"/>
     </row>
     <row r="121" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C121" s="54"/>
+      <c r="C121" s="53"/>
     </row>
     <row r="122" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C122" s="54"/>
+      <c r="C122" s="53"/>
     </row>
     <row r="123" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C123" s="54"/>
+      <c r="C123" s="53"/>
     </row>
     <row r="124" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C124" s="54"/>
+      <c r="C124" s="53"/>
     </row>
     <row r="125" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C125" s="54"/>
+      <c r="C125" s="53"/>
     </row>
     <row r="126" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C126" s="54"/>
+      <c r="C126" s="53"/>
     </row>
     <row r="127" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C127" s="54"/>
+      <c r="C127" s="53"/>
     </row>
     <row r="128" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C128" s="54"/>
+      <c r="C128" s="53"/>
     </row>
     <row r="129" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C129" s="54"/>
+      <c r="C129" s="53"/>
     </row>
     <row r="130" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C130" s="54"/>
+      <c r="C130" s="53"/>
     </row>
     <row r="131" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C131" s="54"/>
+      <c r="C131" s="53"/>
     </row>
     <row r="132" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C132" s="54"/>
+      <c r="C132" s="53"/>
     </row>
     <row r="133" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C133" s="54"/>
+      <c r="C133" s="53"/>
     </row>
     <row r="134" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C134" s="54"/>
+      <c r="C134" s="53"/>
     </row>
     <row r="135" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C135" s="54"/>
+      <c r="C135" s="53"/>
     </row>
     <row r="136" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C136" s="54"/>
+      <c r="C136" s="53"/>
     </row>
     <row r="137" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C137" s="54"/>
+      <c r="C137" s="53"/>
     </row>
     <row r="138" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C138" s="54"/>
+      <c r="C138" s="53"/>
     </row>
     <row r="139" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C139" s="54"/>
+      <c r="C139" s="53"/>
     </row>
     <row r="140" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C140" s="54"/>
+      <c r="C140" s="53"/>
     </row>
     <row r="141" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C141" s="54"/>
+      <c r="C141" s="53"/>
     </row>
     <row r="142" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C142" s="54"/>
+      <c r="C142" s="53"/>
     </row>
     <row r="143" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C143" s="54"/>
+      <c r="C143" s="53"/>
     </row>
     <row r="144" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C144" s="54"/>
+      <c r="C144" s="53"/>
     </row>
     <row r="145" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C145" s="54"/>
+      <c r="C145" s="53"/>
     </row>
     <row r="146" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C146" s="54"/>
+      <c r="C146" s="53"/>
     </row>
     <row r="147" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C147" s="54"/>
+      <c r="C147" s="53"/>
     </row>
     <row r="148" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C148" s="54"/>
+      <c r="C148" s="53"/>
     </row>
     <row r="149" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C149" s="54"/>
+      <c r="C149" s="53"/>
     </row>
     <row r="150" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C150" s="54"/>
+      <c r="C150" s="53"/>
     </row>
     <row r="151" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C151" s="54"/>
+      <c r="C151" s="53"/>
     </row>
     <row r="152" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C152" s="54"/>
+      <c r="C152" s="53"/>
     </row>
     <row r="153" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C153" s="54"/>
+      <c r="C153" s="53"/>
     </row>
     <row r="154" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C154" s="54"/>
+      <c r="C154" s="53"/>
     </row>
     <row r="155" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C155" s="54"/>
+      <c r="C155" s="53"/>
     </row>
     <row r="156" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C156" s="54"/>
+      <c r="C156" s="53"/>
     </row>
     <row r="157" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C157" s="54"/>
+      <c r="C157" s="53"/>
     </row>
     <row r="158" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C158" s="54"/>
+      <c r="C158" s="53"/>
     </row>
     <row r="159" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C159" s="54"/>
+      <c r="C159" s="53"/>
     </row>
     <row r="160" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C160" s="54"/>
+      <c r="C160" s="53"/>
     </row>
     <row r="161" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C161" s="54"/>
+      <c r="C161" s="53"/>
     </row>
     <row r="162" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C162" s="54"/>
+      <c r="C162" s="53"/>
     </row>
     <row r="163" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C163" s="54"/>
+      <c r="C163" s="53"/>
     </row>
     <row r="164" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C164" s="54"/>
+      <c r="C164" s="53"/>
     </row>
     <row r="165" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C165" s="54"/>
+      <c r="C165" s="53"/>
     </row>
     <row r="166" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C166" s="54"/>
+      <c r="C166" s="53"/>
     </row>
     <row r="167" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C167" s="54"/>
+      <c r="C167" s="53"/>
     </row>
     <row r="168" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C168" s="54"/>
+      <c r="C168" s="53"/>
     </row>
     <row r="169" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C169" s="54"/>
+      <c r="C169" s="53"/>
     </row>
     <row r="170" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C170" s="54"/>
+      <c r="C170" s="53"/>
     </row>
     <row r="171" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C171" s="54"/>
+      <c r="C171" s="53"/>
     </row>
     <row r="172" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C172" s="54"/>
+      <c r="C172" s="53"/>
     </row>
     <row r="173" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C173" s="54"/>
+      <c r="C173" s="53"/>
     </row>
     <row r="174" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C174" s="54"/>
+      <c r="C174" s="53"/>
     </row>
     <row r="175" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C175" s="54"/>
+      <c r="C175" s="53"/>
     </row>
     <row r="176" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C176" s="54"/>
+      <c r="C176" s="53"/>
     </row>
     <row r="177" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C177" s="54"/>
+      <c r="C177" s="53"/>
     </row>
     <row r="178" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C178" s="54"/>
+      <c r="C178" s="53"/>
     </row>
     <row r="179" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C179" s="54"/>
+      <c r="C179" s="53"/>
     </row>
     <row r="180" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C180" s="54"/>
+      <c r="C180" s="53"/>
     </row>
     <row r="181" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C181" s="54"/>
+      <c r="C181" s="53"/>
     </row>
     <row r="182" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C182" s="54"/>
+      <c r="C182" s="53"/>
     </row>
     <row r="183" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C183" s="54"/>
+      <c r="C183" s="53"/>
     </row>
     <row r="184" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C184" s="54"/>
+      <c r="C184" s="53"/>
     </row>
     <row r="185" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C185" s="54"/>
+      <c r="C185" s="53"/>
     </row>
     <row r="186" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C186" s="54"/>
+      <c r="C186" s="53"/>
     </row>
     <row r="187" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C187" s="54"/>
+      <c r="C187" s="53"/>
     </row>
     <row r="188" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C188" s="54"/>
+      <c r="C188" s="53"/>
     </row>
     <row r="189" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C189" s="54"/>
+      <c r="C189" s="53"/>
     </row>
     <row r="190" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C190" s="54"/>
+      <c r="C190" s="53"/>
     </row>
     <row r="191" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C191" s="54"/>
+      <c r="C191" s="53"/>
     </row>
     <row r="192" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C192" s="54"/>
+      <c r="C192" s="53"/>
     </row>
     <row r="193" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C193" s="54"/>
+      <c r="C193" s="53"/>
     </row>
     <row r="194" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C194" s="54"/>
+      <c r="C194" s="53"/>
     </row>
     <row r="195" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C195" s="54"/>
+      <c r="C195" s="53"/>
     </row>
     <row r="196" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C196" s="54"/>
+      <c r="C196" s="53"/>
     </row>
     <row r="197" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C197" s="54"/>
+      <c r="C197" s="53"/>
     </row>
     <row r="198" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C198" s="54"/>
+      <c r="C198" s="53"/>
     </row>
     <row r="199" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C199" s="54"/>
+      <c r="C199" s="53"/>
     </row>
     <row r="200" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C200" s="54"/>
+      <c r="C200" s="53"/>
     </row>
     <row r="201" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C201" s="54"/>
+      <c r="C201" s="53"/>
     </row>
     <row r="202" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C202" s="54"/>
+      <c r="C202" s="53"/>
     </row>
     <row r="203" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C203" s="54"/>
+      <c r="C203" s="53"/>
     </row>
     <row r="204" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C204" s="54"/>
+      <c r="C204" s="53"/>
     </row>
     <row r="205" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C205" s="54"/>
+      <c r="C205" s="53"/>
     </row>
     <row r="206" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C206" s="54"/>
+      <c r="C206" s="53"/>
     </row>
     <row r="207" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C207" s="54"/>
+      <c r="C207" s="53"/>
     </row>
     <row r="208" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C208" s="54"/>
+      <c r="C208" s="53"/>
     </row>
     <row r="209" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C209" s="54"/>
+      <c r="C209" s="53"/>
     </row>
     <row r="210" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C210" s="54"/>
+      <c r="C210" s="53"/>
     </row>
     <row r="211" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C211" s="54"/>
+      <c r="C211" s="53"/>
     </row>
     <row r="212" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C212" s="54"/>
+      <c r="C212" s="53"/>
     </row>
     <row r="213" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C213" s="54"/>
+      <c r="C213" s="53"/>
     </row>
     <row r="214" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C214" s="54"/>
+      <c r="C214" s="53"/>
     </row>
     <row r="215" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C215" s="54"/>
+      <c r="C215" s="53"/>
     </row>
     <row r="216" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C216" s="54"/>
+      <c r="C216" s="53"/>
     </row>
     <row r="217" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C217" s="54"/>
+      <c r="C217" s="53"/>
     </row>
     <row r="218" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C218" s="54"/>
+      <c r="C218" s="53"/>
     </row>
     <row r="219" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C219" s="54"/>
+      <c r="C219" s="53"/>
     </row>
     <row r="220" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C220" s="54"/>
+      <c r="C220" s="53"/>
     </row>
     <row r="221" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C221" s="54"/>
+      <c r="C221" s="53"/>
     </row>
     <row r="222" spans="3:3" ht="15.75" customHeight="1"/>
     <row r="223" spans="3:3" ht="15.75" customHeight="1"/>
@@ -14205,6 +14285,9 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>